--- a/spider/huatai/input/华泰证券.xlsx
+++ b/spider/huatai/input/华泰证券.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\deal-record\spider\huatai\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197011D3-9566-4815-B741-A815BE27B59A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E0C3E6-2139-47A6-8122-0D57CE6FB0A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -818,7 +818,7 @@
         <v>-9885.02</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f t="shared" ref="F7:F17" si="1">"人民币"</f>
+        <f t="shared" ref="F7:F33" si="1">"人民币"</f>
         <v>人民币</v>
       </c>
       <c r="G7" s="1" t="str">
@@ -834,7 +834,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="J7" s="1" t="str">
-        <f t="shared" ref="J7:J17" si="2">"卖出"</f>
+        <f t="shared" ref="J7:J33" si="2">"卖出"</f>
         <v>卖出</v>
       </c>
       <c r="K7" s="1">
@@ -1487,6 +1487,1014 @@
         <v>0</v>
       </c>
       <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="str">
+        <f>"20570"</f>
+        <v>20570</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <f>"20200326"</f>
+        <v>20200326</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f>"基金资金拨出"</f>
+        <v>基金资金拨出</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f>"-1.00"</f>
+        <v>-1.00</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>人民币</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f t="shared" ref="G18:I21" si="5">" "</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I18" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>卖出</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="str">
+        <f>"122扣除金额 基金代码：940018,发生份额：1"</f>
+        <v>122扣除金额 基金代码：940018,发生份额：1</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="str">
+        <f>"761"</f>
+        <v>761</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f>"20200428"</f>
+        <v>20200428</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f>"资管转让资金上账"</f>
+        <v>资管转让资金上账</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f>"7093.00"</f>
+        <v>7093.00</v>
+      </c>
+      <c r="E19" s="1">
+        <v>7093</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>人民币</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I19" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>卖出</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="str">
+        <f>"快速取现退出资金拨入,产品代码940018,对方资产账户40000545correct_balance=0"</f>
+        <v>快速取现退出资金拨入,产品代码940018,对方资产账户40000545correct_balance=0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="str">
+        <f>"764"</f>
+        <v>764</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <f>"20200428"</f>
+        <v>20200428</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f>"银行转取"</f>
+        <v>银行转取</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f>"-7093.00"</f>
+        <v>-7093.00</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>人民币</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I20" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>卖出</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="str">
+        <f>"银行返回码[ ]返回信息[0000 交易成功]|转账成功 转账账号:6225881012906292 correct_balance=7093"</f>
+        <v>银行返回码[ ]返回信息[0000 交易成功]|转账成功 转账账号:6225881012906292 correct_balance=7093</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="str">
+        <f>"5677"</f>
+        <v>5677</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <f>"20200428"</f>
+        <v>20200428</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f>"证券卖出"</f>
+        <v>证券卖出</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f>"22865.23"</f>
+        <v>22865.23</v>
+      </c>
+      <c r="E21" s="1">
+        <v>22865.23</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>人民币</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f>"A280737240"</f>
+        <v>A280737240</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f>"510500"</f>
+        <v>510500</v>
+      </c>
+      <c r="I21" s="1" t="str">
+        <f>"500ETF"</f>
+        <v>500ETF</v>
+      </c>
+      <c r="J21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>卖出</v>
+      </c>
+      <c r="K21" s="1">
+        <v>5.5780000000000003</v>
+      </c>
+      <c r="L21" s="1">
+        <v>-4100</v>
+      </c>
+      <c r="M21" s="1" t="str">
+        <f>"证券卖出"</f>
+        <v>证券卖出</v>
+      </c>
+      <c r="N21" s="1">
+        <v>4.57</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="str">
+        <f>"5678"</f>
+        <v>5678</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <f>"20200428"</f>
+        <v>20200428</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f>"证券卖出"</f>
+        <v>证券卖出</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f>"2522.90"</f>
+        <v>2522.90</v>
+      </c>
+      <c r="E22" s="1">
+        <v>25388.13</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>人民币</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f>"A280737240"</f>
+        <v>A280737240</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f>"512980"</f>
+        <v>512980</v>
+      </c>
+      <c r="I22" s="1" t="str">
+        <f>"传媒ETF"</f>
+        <v>传媒ETF</v>
+      </c>
+      <c r="J22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>卖出</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="L22" s="1">
+        <v>-3100</v>
+      </c>
+      <c r="M22" s="1" t="str">
+        <f>"证券卖出"</f>
+        <v>证券卖出</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="str">
+        <f>"17368"</f>
+        <v>17368</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <f>"20200428"</f>
+        <v>20200428</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f>"基金资金拨出"</f>
+        <v>基金资金拨出</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f>"-25387.13"</f>
+        <v>-25387.13</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>人民币</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f t="shared" ref="G23:I26" si="6">" "</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I23" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J23" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>卖出</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1" t="str">
+        <f>"122扣除金额 基金代码：940018,发生份额：25387.13"</f>
+        <v>122扣除金额 基金代码：940018,发生份额：25387.13</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="str">
+        <f>"495"</f>
+        <v>495</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <f>"20200429"</f>
+        <v>20200429</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f>"资管转让资金上账"</f>
+        <v>资管转让资金上账</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f>"25397.00"</f>
+        <v>25397.00</v>
+      </c>
+      <c r="E24" s="1">
+        <v>25398</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>人民币</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I24" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>卖出</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1" t="str">
+        <f>"快速取现退出资金拨入,产品代码940018,对方资产账户40000545correct_balance=0"</f>
+        <v>快速取现退出资金拨入,产品代码940018,对方资产账户40000545correct_balance=0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="str">
+        <f>"499"</f>
+        <v>499</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <f>"20200429"</f>
+        <v>20200429</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f>"银行转取"</f>
+        <v>银行转取</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f>"-25398.00"</f>
+        <v>-25398.00</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>人民币</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I25" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>卖出</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1" t="str">
+        <f>"银行返回码[ ]返回信息[0000 交易成功]|转账成功 转账账号:6225881012906292 correct_balance=25398"</f>
+        <v>银行返回码[ ]返回信息[0000 交易成功]|转账成功 转账账号:6225881012906292 correct_balance=25398</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="str">
+        <f>"14651"</f>
+        <v>14651</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <f>"20200429"</f>
+        <v>20200429</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f>"基金资金拨入"</f>
+        <v>基金资金拨入</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f>"0.35"</f>
+        <v>0.35</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>人民币</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I26" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>卖出</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1" t="str">
+        <f>"124增加金额 基金代码：940018,发生份额：.35"</f>
+        <v>124增加金额 基金代码：940018,发生份额：.35</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="str">
+        <f>"7761"</f>
+        <v>7761</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f>"20200430"</f>
+        <v>20200430</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f>"证券卖出"</f>
+        <v>证券卖出</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f>"50334.73"</f>
+        <v>50334.73</v>
+      </c>
+      <c r="E27" s="1">
+        <v>50335.08</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>人民币</v>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f>"A280737240"</f>
+        <v>A280737240</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f>"510500"</f>
+        <v>510500</v>
+      </c>
+      <c r="I27" s="1" t="str">
+        <f>"500ETF"</f>
+        <v>500ETF</v>
+      </c>
+      <c r="J27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>卖出</v>
+      </c>
+      <c r="K27" s="1">
+        <v>5.7210000000000001</v>
+      </c>
+      <c r="L27" s="1">
+        <v>-8800</v>
+      </c>
+      <c r="M27" s="1" t="str">
+        <f>"证券卖出"</f>
+        <v>证券卖出</v>
+      </c>
+      <c r="N27" s="1">
+        <v>10.07</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="str">
+        <f>"7762"</f>
+        <v>7762</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <f>"20200430"</f>
+        <v>20200430</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f>"证券卖出"</f>
+        <v>证券卖出</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f>"2527.29"</f>
+        <v>2527.29</v>
+      </c>
+      <c r="E28" s="1">
+        <v>52862.37</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>人民币</v>
+      </c>
+      <c r="G28" s="1" t="str">
+        <f>"A280737240"</f>
+        <v>A280737240</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f>"512580"</f>
+        <v>512580</v>
+      </c>
+      <c r="I28" s="1" t="str">
+        <f>"环保ETF"</f>
+        <v>环保ETF</v>
+      </c>
+      <c r="J28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>卖出</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="L28" s="1">
+        <v>-3300</v>
+      </c>
+      <c r="M28" s="1" t="str">
+        <f>"证券卖出"</f>
+        <v>证券卖出</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="str">
+        <f>"7763"</f>
+        <v>7763</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <f>"20200430"</f>
+        <v>20200430</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f>"证券卖出"</f>
+        <v>证券卖出</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f>"10349.73"</f>
+        <v>10349.73</v>
+      </c>
+      <c r="E29" s="1">
+        <v>63212.1</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>人民币</v>
+      </c>
+      <c r="G29" s="1" t="str">
+        <f>"A280737240"</f>
+        <v>A280737240</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f>"510500"</f>
+        <v>510500</v>
+      </c>
+      <c r="I29" s="1" t="str">
+        <f>"500ETF"</f>
+        <v>500ETF</v>
+      </c>
+      <c r="J29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>卖出</v>
+      </c>
+      <c r="K29" s="1">
+        <v>5.7510000000000003</v>
+      </c>
+      <c r="L29" s="1">
+        <v>-1800</v>
+      </c>
+      <c r="M29" s="1" t="str">
+        <f>"证券卖出"</f>
+        <v>证券卖出</v>
+      </c>
+      <c r="N29" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="str">
+        <f>"22535"</f>
+        <v>22535</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <f>"20200430"</f>
+        <v>20200430</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f>"基金资金拨出"</f>
+        <v>基金资金拨出</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f>"-63210.75"</f>
+        <v>-63210.75</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>人民币</v>
+      </c>
+      <c r="G30" s="1" t="str">
+        <f t="shared" ref="G30:I33" si="7">" "</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I30" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>卖出</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1" t="str">
+        <f>"122扣除金额 基金代码：940018,发生份额：63210.75"</f>
+        <v>122扣除金额 基金代码：940018,发生份额：63210.75</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="str">
+        <f>"1079"</f>
+        <v>1079</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <f>"20200506"</f>
+        <v>20200506</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f>"资管转让资金上账"</f>
+        <v>资管转让资金上账</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f>"63210.00"</f>
+        <v>63210.00</v>
+      </c>
+      <c r="E31" s="1">
+        <v>63211.35</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>人民币</v>
+      </c>
+      <c r="G31" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I31" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>卖出</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1" t="str">
+        <f>"快速取现退出资金拨入,产品代码940018,对方资产账户40000545correct_balance=0"</f>
+        <v>快速取现退出资金拨入,产品代码940018,对方资产账户40000545correct_balance=0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="str">
+        <f>"1082"</f>
+        <v>1082</v>
+      </c>
+      <c r="B32" s="1" t="str">
+        <f>"20200506"</f>
+        <v>20200506</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f>"银行转取"</f>
+        <v>银行转取</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f>"-63211.35"</f>
+        <v>-63211.35</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>人民币</v>
+      </c>
+      <c r="G32" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H32" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I32" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>卖出</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1" t="str">
+        <f>"银行返回码[ ]返回信息[0000 交易成功]|转账成功 转账账号:6225881012906292 correct_balance=63211.35"</f>
+        <v>银行返回码[ ]返回信息[0000 交易成功]|转账成功 转账账号:6225881012906292 correct_balance=63211.35</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="str">
+        <f>"9617"</f>
+        <v>9617</v>
+      </c>
+      <c r="B33" s="1" t="str">
+        <f>"20200506"</f>
+        <v>20200506</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f>"基金资金拨入"</f>
+        <v>基金资金拨入</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f>"0.75"</f>
+        <v>0.75</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>人民币</v>
+      </c>
+      <c r="G33" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H33" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I33" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J33" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>卖出</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1" t="str">
+        <f>"124增加金额 基金代码：940018,发生份额：.75"</f>
+        <v>124增加金额 基金代码：940018,发生份额：.75</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1">
         <v>0</v>
       </c>
     </row>

--- a/spider/huatai/input/华泰证券.xlsx
+++ b/spider/huatai/input/华泰证券.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\deal-record\spider\huatai\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E0C3E6-2139-47A6-8122-0D57CE6FB0A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB09D46-9001-43DB-BA60-F077A8C55AE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection activeCell="A34" sqref="A34:Q55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -818,7 +818,7 @@
         <v>-9885.02</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f t="shared" ref="F7:F33" si="1">"人民币"</f>
+        <f t="shared" ref="F7:F55" si="1">"人民币"</f>
         <v>人民币</v>
       </c>
       <c r="G7" s="1" t="str">
@@ -834,7 +834,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="J7" s="1" t="str">
-        <f t="shared" ref="J7:J33" si="2">"卖出"</f>
+        <f t="shared" ref="J7:J55" si="2">"卖出"</f>
         <v>卖出</v>
       </c>
       <c r="K7" s="1">
@@ -1515,7 +1515,7 @@
         <v>人民币</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f t="shared" ref="G18:I21" si="5">" "</f>
+        <f t="shared" ref="G18:I20" si="5">" "</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H18" s="1" t="str">
@@ -2271,7 +2271,7 @@
         <v>人民币</v>
       </c>
       <c r="G30" s="1" t="str">
-        <f t="shared" ref="G30:I33" si="7">" "</f>
+        <f t="shared" ref="G30:I37" si="7">" "</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H30" s="1" t="str">
@@ -2495,6 +2495,1392 @@
         <v>0</v>
       </c>
       <c r="Q33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="str">
+        <f>"12077"</f>
+        <v>12077</v>
+      </c>
+      <c r="B34" s="1" t="str">
+        <f>"20200508"</f>
+        <v>20200508</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f>"基金资金拨出"</f>
+        <v>基金资金拨出</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f>"-0.75"</f>
+        <v>-0.75</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>人民币</v>
+      </c>
+      <c r="G34" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H34" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I34" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J34" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>卖出</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1" t="str">
+        <f>"122扣除金额 基金代码：940018,发生份额：.75"</f>
+        <v>122扣除金额 基金代码：940018,发生份额：.75</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="str">
+        <f>"14794"</f>
+        <v>14794</v>
+      </c>
+      <c r="B35" s="1" t="str">
+        <f>"20200511"</f>
+        <v>20200511</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f>"基金资金拨入"</f>
+        <v>基金资金拨入</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f>"0.39"</f>
+        <v>0.39</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="F35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>人民币</v>
+      </c>
+      <c r="G35" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H35" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I35" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J35" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>卖出</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1" t="str">
+        <f>"124增加金额 基金代码：004749,发生份额：.39"</f>
+        <v>124增加金额 基金代码：004749,发生份额：.39</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="str">
+        <f>"1378"</f>
+        <v>1378</v>
+      </c>
+      <c r="B36" s="1" t="str">
+        <f>"20200512"</f>
+        <v>20200512</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f>"基金资金拨入"</f>
+        <v>基金资金拨入</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <f>"1.80"</f>
+        <v>1.80</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2.19</v>
+      </c>
+      <c r="F36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>人民币</v>
+      </c>
+      <c r="G36" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H36" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I36" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J36" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>卖出</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1" t="str">
+        <f>"124增加金额 基金代码：003474,发生份额：1.8,基金实时交收入账"</f>
+        <v>124增加金额 基金代码：003474,发生份额：1.8,基金实时交收入账</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="str">
+        <f>"11557"</f>
+        <v>11557</v>
+      </c>
+      <c r="B37" s="1" t="str">
+        <f>"20200512"</f>
+        <v>20200512</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f>"基金资金拨出"</f>
+        <v>基金资金拨出</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <f>"-2.19"</f>
+        <v>-2.19</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>人民币</v>
+      </c>
+      <c r="G37" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H37" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I37" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J37" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>卖出</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1" t="str">
+        <f>"122扣除金额 基金代码：940018,发生份额：2.19"</f>
+        <v>122扣除金额 基金代码：940018,发生份额：2.19</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="str">
+        <f>"3923"</f>
+        <v>3923</v>
+      </c>
+      <c r="B38" s="1" t="str">
+        <f>"20200519"</f>
+        <v>20200519</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f>"证券卖出"</f>
+        <v>证券卖出</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <f>"10787.04"</f>
+        <v>10787.04</v>
+      </c>
+      <c r="E38" s="1">
+        <v>10787.04</v>
+      </c>
+      <c r="F38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>人民币</v>
+      </c>
+      <c r="G38" s="1" t="str">
+        <f>"A280737240"</f>
+        <v>A280737240</v>
+      </c>
+      <c r="H38" s="1" t="str">
+        <f>"510500"</f>
+        <v>510500</v>
+      </c>
+      <c r="I38" s="1" t="str">
+        <f>"500ETF"</f>
+        <v>500ETF</v>
+      </c>
+      <c r="J38" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>卖出</v>
+      </c>
+      <c r="K38" s="1">
+        <v>5.9939999999999998</v>
+      </c>
+      <c r="L38" s="1">
+        <v>-1800</v>
+      </c>
+      <c r="M38" s="1" t="str">
+        <f>"证券卖出"</f>
+        <v>证券卖出</v>
+      </c>
+      <c r="N38" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="str">
+        <f>"8298"</f>
+        <v>8298</v>
+      </c>
+      <c r="B39" s="1" t="str">
+        <f>"20200519"</f>
+        <v>20200519</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <f>"基金资金拨出"</f>
+        <v>基金资金拨出</v>
+      </c>
+      <c r="D39" s="1" t="str">
+        <f>"-10786.04"</f>
+        <v>-10786.04</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>人民币</v>
+      </c>
+      <c r="G39" s="1" t="str">
+        <f t="shared" ref="G39:I42" si="8">" "</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H39" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I39" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J39" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>卖出</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1" t="str">
+        <f>"122扣除金额 基金代码：940018,发生份额：10786.04"</f>
+        <v>122扣除金额 基金代码：940018,发生份额：10786.04</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="str">
+        <f>"2579"</f>
+        <v>2579</v>
+      </c>
+      <c r="B40" s="1" t="str">
+        <f>"20200520"</f>
+        <v>20200520</v>
+      </c>
+      <c r="C40" s="1" t="str">
+        <f>"基金资金拨出"</f>
+        <v>基金资金拨出</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <f>"-1.00"</f>
+        <v>-1.00</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>人民币</v>
+      </c>
+      <c r="G40" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H40" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I40" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J40" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>卖出</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1" t="str">
+        <f>"122扣除金额 基金代码：940018,发生份额：1"</f>
+        <v>122扣除金额 基金代码：940018,发生份额：1</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="str">
+        <f>"867"</f>
+        <v>867</v>
+      </c>
+      <c r="B41" s="1" t="str">
+        <f>"20200522"</f>
+        <v>20200522</v>
+      </c>
+      <c r="C41" s="1" t="str">
+        <f>"资管转让资金上账"</f>
+        <v>资管转让资金上账</v>
+      </c>
+      <c r="D41" s="1" t="str">
+        <f>"10789.00"</f>
+        <v>10789.00</v>
+      </c>
+      <c r="E41" s="1">
+        <v>10789</v>
+      </c>
+      <c r="F41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>人民币</v>
+      </c>
+      <c r="G41" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H41" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I41" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J41" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>卖出</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1" t="str">
+        <f>"快速取现退出资金拨入,产品代码940018,对方资产账户40000545correct_balance=0"</f>
+        <v>快速取现退出资金拨入,产品代码940018,对方资产账户40000545correct_balance=0</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="str">
+        <f>"870"</f>
+        <v>870</v>
+      </c>
+      <c r="B42" s="1" t="str">
+        <f>"20200522"</f>
+        <v>20200522</v>
+      </c>
+      <c r="C42" s="1" t="str">
+        <f>"银行转取"</f>
+        <v>银行转取</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <f>"-10789.00"</f>
+        <v>-10789.00</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>人民币</v>
+      </c>
+      <c r="G42" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H42" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I42" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J42" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>卖出</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1" t="str">
+        <f>"银行返回码[ ]返回信息[0000 交易成功]|转账成功 转账账号:6225881012906292 correct_balance=10789"</f>
+        <v>银行返回码[ ]返回信息[0000 交易成功]|转账成功 转账账号:6225881012906292 correct_balance=10789</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="str">
+        <f>"2828"</f>
+        <v>2828</v>
+      </c>
+      <c r="B43" s="1" t="str">
+        <f>"20200526"</f>
+        <v>20200526</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f>"证券卖出"</f>
+        <v>证券卖出</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <f>"10571.09"</f>
+        <v>10571.09</v>
+      </c>
+      <c r="E43" s="1">
+        <v>10571.09</v>
+      </c>
+      <c r="F43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>人民币</v>
+      </c>
+      <c r="G43" s="1" t="str">
+        <f>"A280737240"</f>
+        <v>A280737240</v>
+      </c>
+      <c r="H43" s="1" t="str">
+        <f>"510500"</f>
+        <v>510500</v>
+      </c>
+      <c r="I43" s="1" t="str">
+        <f>"500ETF"</f>
+        <v>500ETF</v>
+      </c>
+      <c r="J43" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>卖出</v>
+      </c>
+      <c r="K43" s="1">
+        <v>5.8739999999999997</v>
+      </c>
+      <c r="L43" s="1">
+        <v>-1800</v>
+      </c>
+      <c r="M43" s="1" t="str">
+        <f>"证券卖出"</f>
+        <v>证券卖出</v>
+      </c>
+      <c r="N43" s="1">
+        <v>2.11</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="str">
+        <f>"8367"</f>
+        <v>8367</v>
+      </c>
+      <c r="B44" s="1" t="str">
+        <f>"20200526"</f>
+        <v>20200526</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <f>"基金资金拨出"</f>
+        <v>基金资金拨出</v>
+      </c>
+      <c r="D44" s="1" t="str">
+        <f>"-10570.09"</f>
+        <v>-10570.09</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>人民币</v>
+      </c>
+      <c r="G44" s="1" t="str">
+        <f t="shared" ref="G44:I48" si="9">" "</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H44" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I44" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J44" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>卖出</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1" t="str">
+        <f>"122扣除金额 基金代码：940018,发生份额：10570.09"</f>
+        <v>122扣除金额 基金代码：940018,发生份额：10570.09</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0</v>
+      </c>
+      <c r="O44" s="1">
+        <v>0</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="str">
+        <f>"617"</f>
+        <v>617</v>
+      </c>
+      <c r="B45" s="1" t="str">
+        <f>"20200527"</f>
+        <v>20200527</v>
+      </c>
+      <c r="C45" s="1" t="str">
+        <f>"资管转让资金上账"</f>
+        <v>资管转让资金上账</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <f>"10571.00"</f>
+        <v>10571.00</v>
+      </c>
+      <c r="E45" s="1">
+        <v>10572</v>
+      </c>
+      <c r="F45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>人民币</v>
+      </c>
+      <c r="G45" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H45" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I45" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J45" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>卖出</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0</v>
+      </c>
+      <c r="M45" s="1" t="str">
+        <f>"快速取现退出资金拨入,产品代码940018,对方资产账户40000545correct_balance=0"</f>
+        <v>快速取现退出资金拨入,产品代码940018,对方资产账户40000545correct_balance=0</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0</v>
+      </c>
+      <c r="O45" s="1">
+        <v>0</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="str">
+        <f>"620"</f>
+        <v>620</v>
+      </c>
+      <c r="B46" s="1" t="str">
+        <f>"20200527"</f>
+        <v>20200527</v>
+      </c>
+      <c r="C46" s="1" t="str">
+        <f>"银行转取"</f>
+        <v>银行转取</v>
+      </c>
+      <c r="D46" s="1" t="str">
+        <f>"-10572.00"</f>
+        <v>-10572.00</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>人民币</v>
+      </c>
+      <c r="G46" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H46" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I46" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J46" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>卖出</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0</v>
+      </c>
+      <c r="M46" s="1" t="str">
+        <f>"银行返回码[ ]返回信息[0000 交易成功]|转账成功 转账账号:6225881012906292 correct_balance=10572"</f>
+        <v>银行返回码[ ]返回信息[0000 交易成功]|转账成功 转账账号:6225881012906292 correct_balance=10572</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0</v>
+      </c>
+      <c r="O46" s="1">
+        <v>0</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="str">
+        <f>"9673"</f>
+        <v>9673</v>
+      </c>
+      <c r="B47" s="1" t="str">
+        <f>"20200527"</f>
+        <v>20200527</v>
+      </c>
+      <c r="C47" s="1" t="str">
+        <f>"基金资金拨入"</f>
+        <v>基金资金拨入</v>
+      </c>
+      <c r="D47" s="1" t="str">
+        <f>"0.93"</f>
+        <v>0.93</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="F47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>人民币</v>
+      </c>
+      <c r="G47" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H47" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I47" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J47" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>卖出</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1" t="str">
+        <f>"124增加金额 基金代码：940018,发生份额：.93"</f>
+        <v>124增加金额 基金代码：940018,发生份额：.93</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
+        <v>0</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="str">
+        <f>"2993"</f>
+        <v>2993</v>
+      </c>
+      <c r="B48" s="1" t="str">
+        <f>"20200529"</f>
+        <v>20200529</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <f>"基金资金拨出"</f>
+        <v>基金资金拨出</v>
+      </c>
+      <c r="D48" s="1" t="str">
+        <f>"-10549.42"</f>
+        <v>-10549.42</v>
+      </c>
+      <c r="E48" s="1">
+        <v>-10548.49</v>
+      </c>
+      <c r="F48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>人民币</v>
+      </c>
+      <c r="G48" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H48" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I48" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J48" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>卖出</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0</v>
+      </c>
+      <c r="M48" s="1" t="str">
+        <f>"122扣除金额 基金代码：940018,发生份额：10549.42"</f>
+        <v>122扣除金额 基金代码：940018,发生份额：10549.42</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
+        <v>0</v>
+      </c>
+      <c r="P48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="str">
+        <f>"5457"</f>
+        <v>5457</v>
+      </c>
+      <c r="B49" s="1" t="str">
+        <f>"20200529"</f>
+        <v>20200529</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <f>"证券卖出"</f>
+        <v>证券卖出</v>
+      </c>
+      <c r="D49" s="1" t="str">
+        <f>"10549.49"</f>
+        <v>10549.49</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>人民币</v>
+      </c>
+      <c r="G49" s="1" t="str">
+        <f>"A280737240"</f>
+        <v>A280737240</v>
+      </c>
+      <c r="H49" s="1" t="str">
+        <f>"510500"</f>
+        <v>510500</v>
+      </c>
+      <c r="I49" s="1" t="str">
+        <f>"500ETF"</f>
+        <v>500ETF</v>
+      </c>
+      <c r="J49" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>卖出</v>
+      </c>
+      <c r="K49" s="1">
+        <v>5.8620000000000001</v>
+      </c>
+      <c r="L49" s="1">
+        <v>-1800</v>
+      </c>
+      <c r="M49" s="1" t="str">
+        <f>"证券卖出"</f>
+        <v>证券卖出</v>
+      </c>
+      <c r="N49" s="1">
+        <v>2.11</v>
+      </c>
+      <c r="O49" s="1">
+        <v>0</v>
+      </c>
+      <c r="P49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="str">
+        <f>"3172"</f>
+        <v>3172</v>
+      </c>
+      <c r="B50" s="1" t="str">
+        <f>"20200601"</f>
+        <v>20200601</v>
+      </c>
+      <c r="C50" s="1" t="str">
+        <f>"基金资金拨出"</f>
+        <v>基金资金拨出</v>
+      </c>
+      <c r="D50" s="1" t="str">
+        <f>"-10797.84"</f>
+        <v>-10797.84</v>
+      </c>
+      <c r="E50" s="1">
+        <v>-10796.84</v>
+      </c>
+      <c r="F50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>人民币</v>
+      </c>
+      <c r="G50" s="1" t="str">
+        <f>" "</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H50" s="1" t="str">
+        <f>" "</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I50" s="1" t="str">
+        <f>" "</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J50" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>卖出</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0</v>
+      </c>
+      <c r="M50" s="1" t="str">
+        <f>"122扣除金额 基金代码：940018,发生份额：10797.84"</f>
+        <v>122扣除金额 基金代码：940018,发生份额：10797.84</v>
+      </c>
+      <c r="N50" s="1">
+        <v>0</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0</v>
+      </c>
+      <c r="P50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="str">
+        <f>"6450"</f>
+        <v>6450</v>
+      </c>
+      <c r="B51" s="1" t="str">
+        <f>"20200601"</f>
+        <v>20200601</v>
+      </c>
+      <c r="C51" s="1" t="str">
+        <f>"证券卖出"</f>
+        <v>证券卖出</v>
+      </c>
+      <c r="D51" s="1" t="str">
+        <f>"10797.84"</f>
+        <v>10797.84</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>人民币</v>
+      </c>
+      <c r="G51" s="1" t="str">
+        <f>"A280737240"</f>
+        <v>A280737240</v>
+      </c>
+      <c r="H51" s="1" t="str">
+        <f>"510500"</f>
+        <v>510500</v>
+      </c>
+      <c r="I51" s="1" t="str">
+        <f>"500ETF"</f>
+        <v>500ETF</v>
+      </c>
+      <c r="J51" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>卖出</v>
+      </c>
+      <c r="K51" s="1">
+        <v>6</v>
+      </c>
+      <c r="L51" s="1">
+        <v>-1800</v>
+      </c>
+      <c r="M51" s="1" t="str">
+        <f>"证券卖出"</f>
+        <v>证券卖出</v>
+      </c>
+      <c r="N51" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="O51" s="1">
+        <v>0</v>
+      </c>
+      <c r="P51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="str">
+        <f>"799"</f>
+        <v>799</v>
+      </c>
+      <c r="B52" s="1" t="str">
+        <f>"20200602"</f>
+        <v>20200602</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <f>"资管转让资金上账"</f>
+        <v>资管转让资金上账</v>
+      </c>
+      <c r="D52" s="1" t="str">
+        <f>"19891.00"</f>
+        <v>19891.00</v>
+      </c>
+      <c r="E52" s="1">
+        <v>19892</v>
+      </c>
+      <c r="F52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>人民币</v>
+      </c>
+      <c r="G52" s="1" t="str">
+        <f t="shared" ref="G52:I55" si="10">" "</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H52" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I52" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J52" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>卖出</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0</v>
+      </c>
+      <c r="M52" s="1" t="str">
+        <f>"快速取现退出资金拨入,产品代码940018,对方资产账户40000545correct_balance=0"</f>
+        <v>快速取现退出资金拨入,产品代码940018,对方资产账户40000545correct_balance=0</v>
+      </c>
+      <c r="N52" s="1">
+        <v>0</v>
+      </c>
+      <c r="O52" s="1">
+        <v>0</v>
+      </c>
+      <c r="P52" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="str">
+        <f>"803"</f>
+        <v>803</v>
+      </c>
+      <c r="B53" s="1" t="str">
+        <f>"20200602"</f>
+        <v>20200602</v>
+      </c>
+      <c r="C53" s="1" t="str">
+        <f>"银行转取"</f>
+        <v>银行转取</v>
+      </c>
+      <c r="D53" s="1" t="str">
+        <f>"-19892.00"</f>
+        <v>-19892.00</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>人民币</v>
+      </c>
+      <c r="G53" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H53" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I53" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J53" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>卖出</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0</v>
+      </c>
+      <c r="M53" s="1" t="str">
+        <f>"银行返回码[ ]返回信息[0000 交易成功]|转账成功 转账账号:6225881012906292 correct_balance=19892"</f>
+        <v>银行返回码[ ]返回信息[0000 交易成功]|转账成功 转账账号:6225881012906292 correct_balance=19892</v>
+      </c>
+      <c r="N53" s="1">
+        <v>0</v>
+      </c>
+      <c r="O53" s="1">
+        <v>0</v>
+      </c>
+      <c r="P53" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="str">
+        <f>"807"</f>
+        <v>807</v>
+      </c>
+      <c r="B54" s="1" t="str">
+        <f>"20200602"</f>
+        <v>20200602</v>
+      </c>
+      <c r="C54" s="1" t="str">
+        <f>"资管转让资金上账"</f>
+        <v>资管转让资金上账</v>
+      </c>
+      <c r="D54" s="1" t="str">
+        <f>"1456.00"</f>
+        <v>1456.00</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1456</v>
+      </c>
+      <c r="F54" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>人民币</v>
+      </c>
+      <c r="G54" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H54" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I54" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J54" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>卖出</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0</v>
+      </c>
+      <c r="M54" s="1" t="str">
+        <f>"快速取现退出资金拨入,产品代码940018,对方资产账户40000545correct_balance=0"</f>
+        <v>快速取现退出资金拨入,产品代码940018,对方资产账户40000545correct_balance=0</v>
+      </c>
+      <c r="N54" s="1">
+        <v>0</v>
+      </c>
+      <c r="O54" s="1">
+        <v>0</v>
+      </c>
+      <c r="P54" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="str">
+        <f>"811"</f>
+        <v>811</v>
+      </c>
+      <c r="B55" s="1" t="str">
+        <f>"20200602"</f>
+        <v>20200602</v>
+      </c>
+      <c r="C55" s="1" t="str">
+        <f>"银行转取"</f>
+        <v>银行转取</v>
+      </c>
+      <c r="D55" s="1" t="str">
+        <f>"-1456.00"</f>
+        <v>-1456.00</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>人民币</v>
+      </c>
+      <c r="G55" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H55" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I55" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J55" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>卖出</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0</v>
+      </c>
+      <c r="M55" s="1" t="str">
+        <f>"银行返回码[ ]返回信息[0000 交易成功]|转账成功 转账账号:6225881012906292 correct_balance=1456"</f>
+        <v>银行返回码[ ]返回信息[0000 交易成功]|转账成功 转账账号:6225881012906292 correct_balance=1456</v>
+      </c>
+      <c r="N55" s="1">
+        <v>0</v>
+      </c>
+      <c r="O55" s="1">
+        <v>0</v>
+      </c>
+      <c r="P55" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="1">
         <v>0</v>
       </c>
     </row>

--- a/spider/huatai/input/华泰证券.xlsx
+++ b/spider/huatai/input/华泰证券.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\deal-record\spider\huatai\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB09D46-9001-43DB-BA60-F077A8C55AE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E794441D-F2E3-46A8-B08E-2622AA17928E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>流水号</t>
   </si>
@@ -82,6 +82,75 @@
   </si>
   <si>
     <t>其他费</t>
+  </si>
+  <si>
+    <t>802988113</t>
+  </si>
+  <si>
+    <t>20200710</t>
+  </si>
+  <si>
+    <t>证券卖出</t>
+  </si>
+  <si>
+    <t>10092.38</t>
+  </si>
+  <si>
+    <t>人民币</t>
+  </si>
+  <si>
+    <t>0184500716</t>
+  </si>
+  <si>
+    <t>159938</t>
+  </si>
+  <si>
+    <t>医药</t>
+  </si>
+  <si>
+    <t>卖出</t>
+  </si>
+  <si>
+    <t>911090840</t>
+  </si>
+  <si>
+    <t>基金资金拨出</t>
+  </si>
+  <si>
+    <t>-10091.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>天天发确认数据生成</t>
+  </si>
+  <si>
+    <t>1218</t>
+  </si>
+  <si>
+    <t>20200713</t>
+  </si>
+  <si>
+    <t>资管转让资金上账</t>
+  </si>
+  <si>
+    <t>10092.00</t>
+  </si>
+  <si>
+    <t>快速取现退出资金拨入,产品代码940018,对方资产账户40000545correct_balance=0</t>
+  </si>
+  <si>
+    <t>1222</t>
+  </si>
+  <si>
+    <t>银行转取</t>
+  </si>
+  <si>
+    <t>-10093.00</t>
+  </si>
+  <si>
+    <t>银行返回码[ ]返回信息[0000 交易成功]|转账成功 转账账号:6225881012906292 correct_balance=10093</t>
   </si>
 </sst>
 </file>
@@ -409,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:Q55"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:Q59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3884,6 +3953,218 @@
         <v>0</v>
       </c>
     </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>21</v>
+      </c>
+      <c r="G56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" t="s">
+        <v>23</v>
+      </c>
+      <c r="I56" t="s">
+        <v>24</v>
+      </c>
+      <c r="J56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K56">
+        <v>2.1030000000000002</v>
+      </c>
+      <c r="L56">
+        <v>-4800</v>
+      </c>
+      <c r="M56" t="s">
+        <v>19</v>
+      </c>
+      <c r="N56">
+        <v>2.02</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57">
+        <v>-10091.379999999999</v>
+      </c>
+      <c r="F57" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57" t="s">
+        <v>29</v>
+      </c>
+      <c r="J57" t="s">
+        <v>25</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57" t="s">
+        <v>30</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" t="s">
+        <v>34</v>
+      </c>
+      <c r="E58">
+        <v>10093</v>
+      </c>
+      <c r="F58" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" t="s">
+        <v>29</v>
+      </c>
+      <c r="H58" t="s">
+        <v>29</v>
+      </c>
+      <c r="I58" t="s">
+        <v>29</v>
+      </c>
+      <c r="J58" t="s">
+        <v>25</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58" t="s">
+        <v>35</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>29</v>
+      </c>
+      <c r="H59" t="s">
+        <v>29</v>
+      </c>
+      <c r="I59" t="s">
+        <v>29</v>
+      </c>
+      <c r="J59" t="s">
+        <v>25</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59" t="s">
+        <v>39</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
